--- a/resource/ExcelTables/Layer.xlsx
+++ b/resource/ExcelTables/Layer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN\ProjectY\trunk\Tables\datasource\ExcelTables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD1AF31-D593-462E-B04B-55093922E8BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{466DCA2D-C865-4269-8515-422A9EE3A1A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21390" yWindow="4830" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-29250" yWindow="2440" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="层级" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>地表层</t>
   </si>
@@ -37,106 +37,6 @@
   </si>
   <si>
     <t>铺设地板</t>
-  </si>
-  <si>
-    <t>地毯层</t>
-  </si>
-  <si>
-    <t>铺设地毯</t>
-  </si>
-  <si>
-    <t>墙壁层</t>
-  </si>
-  <si>
-    <t>墙壁最底层</t>
-  </si>
-  <si>
-    <t>墙纸层</t>
-  </si>
-  <si>
-    <t>墙面铺设的墙纸装饰</t>
-  </si>
-  <si>
-    <t>厨具（地板）</t>
-  </si>
-  <si>
-    <t>做饭工具，只能放在地板上</t>
-  </si>
-  <si>
-    <t>厨具（桌面）</t>
-  </si>
-  <si>
-    <t>做饭工具，只能放在桌面上</t>
-  </si>
-  <si>
-    <t>辅料（桌面）</t>
-  </si>
-  <si>
-    <t>配料，只能放在桌面</t>
-  </si>
-  <si>
-    <t>特殊经营设备（地板）</t>
-  </si>
-  <si>
-    <t>设备台，只能放在地板上</t>
-  </si>
-  <si>
-    <t>经营设备（地板）</t>
-  </si>
-  <si>
-    <t>桌，椅，只能放在地板上</t>
-  </si>
-  <si>
-    <t>经营设备（墙面）</t>
-  </si>
-  <si>
-    <t>置物架等设备，只能放在地面</t>
-  </si>
-  <si>
-    <t>摆件1（地板）</t>
-  </si>
-  <si>
-    <t>装饰品，放在地板上</t>
-  </si>
-  <si>
-    <t>摆件2（桌面）</t>
-  </si>
-  <si>
-    <t>装饰品，只能放在桌面</t>
-  </si>
-  <si>
-    <t>摆件3（墙面）</t>
-  </si>
-  <si>
-    <t>装饰品，只能放在墙面</t>
-  </si>
-  <si>
-    <t>30001,30002,31000,31003,31004,31006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30002,30003,31000,31003,31004,31006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30003,31000,31003,31004,31006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30004,31005,31008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>31005,31008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>31001,31002,31007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>31002,31007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>can_place</t>
@@ -506,263 +406,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.58203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.4140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:5" s="6" customFormat="1" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:4" s="6" customFormat="1" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>36</v>
+        <v>6</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>30000</v>
+    <row r="3" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="2" t="b">
-        <v>0</v>
-      </c>
     </row>
-    <row r="4" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>30001</v>
+    <row r="4" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>30002</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>30003</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>30004</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>31000</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>31001</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>31002</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>31003</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <v>31004</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
-        <v>31005</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
-        <v>31006</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
-        <v>31007</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
-        <v>31008</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="2" t="b">
+      <c r="C4" s="3"/>
+      <c r="D4" s="2" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E1048576" xr:uid="{7BDD8811-F7F4-4CB1-86B9-5398BF88C9D2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D1048576" xr:uid="{7BDD8811-F7F4-4CB1-86B9-5398BF88C9D2}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>

--- a/resource/ExcelTables/Layer.xlsx
+++ b/resource/ExcelTables/Layer.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN\ProjectY\trunk\Tables\datasource\ExcelTables\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{466DCA2D-C865-4269-8515-422A9EE3A1A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29250" yWindow="2440" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="17680"/>
   </bookViews>
   <sheets>
     <sheet name="层级" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -26,6 +28,15 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+  <si>
+    <t>layer_id</t>
+  </si>
+  <si>
+    <t>can_be_placed</t>
+  </si>
+  <si>
+    <t>can_store</t>
+  </si>
   <si>
     <t>地表层</t>
   </si>
@@ -38,35 +49,22 @@
   <si>
     <t>铺设地板</t>
   </si>
-  <si>
-    <t>can_place</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>can_store</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>layer_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -74,11 +72,154 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -87,18 +228,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -106,38 +421,321 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -186,7 +784,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -221,7 +819,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -395,77 +993,72 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="9.58203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.58333333333333" customWidth="1"/>
+    <col min="2" max="2" width="23.75" customWidth="1"/>
+    <col min="3" max="3" width="18.4166666666667" customWidth="1"/>
+    <col min="4" max="4" width="8.66666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:4" s="6" customFormat="1" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>6</v>
+    <row r="1" s="1" customFormat="1"/>
+    <row r="2" s="2" customFormat="1" ht="14.5" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" ht="14.5" spans="1:4">
+      <c r="A3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="2" t="b">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
+    <row r="4" ht="14.5" spans="1:4">
+      <c r="A4" s="5" t="s">
+        <v>5</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="2" t="b">
+      <c r="D4" s="5" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D1048576" xr:uid="{7BDD8811-F7F4-4CB1-86B9-5398BF88C9D2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/resource/ExcelTables/Layer.xlsx
+++ b/resource/ExcelTables/Layer.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN\ProjectY\trunk\Tables\datasource\ExcelTables\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED1BFB2-713E-40BA-8412-CE1758E3262C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27770" yWindow="2320" windowWidth="22450" windowHeight="16150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="17680"/>
   </bookViews>
   <sheets>
     <sheet name="层级" sheetId="1" r:id="rId1"/>
@@ -33,91 +27,93 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
   <si>
     <t>layer_id</t>
   </si>
   <si>
-    <t>can_be_placed</t>
+    <t>can_be_place</t>
   </si>
   <si>
     <t>can_store</t>
   </si>
   <si>
+    <t>order</t>
+  </si>
+  <si>
     <t>ground_indoor</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>屋内地表</t>
   </si>
   <si>
     <t>ground_outdoor</t>
   </si>
   <si>
+    <t>屋外地表</t>
+  </si>
+  <si>
     <t>ground_roof</t>
   </si>
   <si>
+    <t>楼顶地表</t>
+  </si>
+  <si>
     <t>floor_indoor</t>
   </si>
   <si>
+    <t>屋内地板</t>
+  </si>
+  <si>
     <t>floor_outdoor</t>
   </si>
   <si>
+    <t>屋外地板</t>
+  </si>
+  <si>
     <t>carpet</t>
   </si>
   <si>
+    <t>地毯</t>
+  </si>
+  <si>
     <t>furniture_ground</t>
   </si>
   <si>
+    <t>地面家具</t>
+  </si>
+  <si>
     <t>furniture_table</t>
   </si>
   <si>
+    <t>桌面家具</t>
+  </si>
+  <si>
     <t>furniture_cabinet</t>
   </si>
   <si>
+    <t>柜面家具</t>
+  </si>
+  <si>
     <t>wall_seperator</t>
   </si>
   <si>
+    <t>墙面分隔符</t>
+  </si>
+  <si>
     <t>wall_ground</t>
   </si>
   <si>
+    <t>墙面</t>
+  </si>
+  <si>
     <t>wall_paper</t>
   </si>
   <si>
+    <t>墙纸</t>
+  </si>
+  <si>
     <t>furniture_cupboard</t>
-  </si>
-  <si>
-    <t>屋内地表</t>
-  </si>
-  <si>
-    <t>屋外地表</t>
-  </si>
-  <si>
-    <t>楼顶地表</t>
-  </si>
-  <si>
-    <t>屋内地板</t>
-  </si>
-  <si>
-    <t>屋外地板</t>
-  </si>
-  <si>
-    <t>地毯</t>
-  </si>
-  <si>
-    <t>地面家具</t>
-  </si>
-  <si>
-    <t>桌面家具</t>
-  </si>
-  <si>
-    <t>柜面家具</t>
-  </si>
-  <si>
-    <t>墙面分隔符</t>
-  </si>
-  <si>
-    <t>墙面</t>
-  </si>
-  <si>
-    <t>墙纸</t>
   </si>
   <si>
     <t>壁厨家具</t>
@@ -126,8 +122,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,26 +141,162 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -167,18 +305,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39994506668294322"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="7" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -186,36 +504,345 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -473,28 +1100,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="16.58203125" customWidth="1"/>
+    <col min="1" max="1" width="16.5833333333333" customWidth="1"/>
     <col min="2" max="2" width="23.75" customWidth="1"/>
-    <col min="3" max="3" width="18.4140625" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="100.666666666667" customWidth="1"/>
+    <col min="4" max="4" width="8.66666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:4" s="2" customFormat="1" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="1" s="1" customFormat="1"/>
+    <row r="2" s="2" customFormat="1" ht="14.5" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -505,126 +1132,198 @@
       <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
+      <c r="E2" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="3" ht="14.5" spans="1:5">
       <c r="A3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" ht="14.5" spans="1:5">
+      <c r="A4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5" t="b">
-        <v>0</v>
+      <c r="B9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="3">
+        <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5" t="b">
-        <v>1</v>
+    <row r="10" spans="1:5">
+      <c r="A10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="3">
+        <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
+    <row r="11" spans="1:5">
+      <c r="A11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="3">
+        <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
+    <row r="12" spans="1:5">
+      <c r="A12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="3">
+        <v>999</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="13" spans="1:5">
+      <c r="A13" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
+    <row r="15" spans="1:5">
+      <c r="A15" s="8" t="s">
         <v>28</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="3">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>